--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semster 3\python\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Enrollment-No</t>
   </si>
@@ -227,12 +227,16 @@
   </si>
   <si>
     <t>Manav Mandalia</t>
+  </si>
+  <si>
+    <t>New Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -597,8 +601,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125"/>
+    <col min="2" max="2" customWidth="true" width="59.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,539 +614,544 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>92301733001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>92301733002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>92301733003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>92301733004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>92301733005</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>92301733006</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>92301733007</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>92301733008</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>92301733009</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>92301733010</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>92301733011</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>92301733012</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>92301733013</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>92301733014</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>92301733015</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>92301733016</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>92301733017</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>92301733018</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="0">
         <v>92301733019</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="0">
         <v>92301733020</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="0">
         <v>92301733021</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="0">
         <v>92301733022</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="0">
         <v>92301733023</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="0">
         <v>92301733024</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="0">
         <v>92301733025</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="0">
         <v>92301733026</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="0">
         <v>92301733027</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="0">
         <v>92301733028</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="0">
         <v>92301733029</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="0">
         <v>92301733030</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="0">
         <v>92301733031</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="0">
         <v>92301733032</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="0">
         <v>92301733033</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="0">
         <v>92301733034</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="0">
         <v>92301733035</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="0">
         <v>92301733036</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="0">
         <v>92301733037</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="0">
         <v>92301733038</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="0">
         <v>92301733039</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="0">
         <v>92301733040</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="0">
         <v>92301733041</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="0">
         <v>92301733042</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="0">
         <v>92301733043</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="0">
         <v>92301733044</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="0">
         <v>92301733045</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="0">
         <v>92301733046</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="0">
         <v>92301733047</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="0">
         <v>92301733048</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="0">
         <v>92301733049</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="0">
         <v>92301733050</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="0">
         <v>92301733051</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="0">
         <v>92301733052</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="0">
         <v>92301733053</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="0">
         <v>92301733054</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="0">
         <v>92301733055</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="0">
         <v>92301733056</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="0">
         <v>92301733057</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="0">
         <v>92301733058</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="0">
         <v>92301733059</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="0">
         <v>92301733060</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="0">
         <v>92301733061</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="0">
         <v>92301733062</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="0">
         <v>92301733063</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="0">
         <v>92301733064</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="0">
         <v>92301733065</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="0">
         <v>92301733066</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="0">
         <v>92301733067</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>68</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
